--- a/src/main/java/com/qa/purchaseorder/testdata/ExcelData.xlsx
+++ b/src/main/java/com/qa/purchaseorder/testdata/ExcelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="137">
   <si>
     <t>First name(givenName)</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Internal UOA Product Code(internalProductCode2)</t>
-  </si>
-  <si>
-    <t>Are you making this request on behalf of someone else? e.g. someone else is the primary contact for this order.(onBehalf)</t>
   </si>
   <si>
     <t>Select the faculty or service division this request is for:(facultyServiceDiv)</t>
@@ -838,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,277 +1147,277 @@
         <v>72</v>
       </c>
       <c r="BV1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:83" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BO2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BX2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="CA2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
@@ -1435,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1539,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1641,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>28</v>
@@ -1731,277 +1728,277 @@
         <v>29</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BS1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BT1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BV1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="CA1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="CB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:81" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP2" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AT2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM2" s="5" t="s">
+      <c r="BN2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="BN2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BU2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BU2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="BX2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CA2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CB2" s="10"/>
       <c r="CC2" s="10"/>
